--- a/Desktop/JOE/Digestion/LIQ 201124/Muka Depan.xlsx
+++ b/Desktop/JOE/Digestion/LIQ 201124/Muka Depan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\LIQ 201124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B3D8F1-F1B1-4642-974C-0B8F2F3DF55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A046F-7E28-45F2-8A87-835D79FAFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -259,13 +259,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
             <v>1.5029999999999999</v>
           </cell>
           <cell r="F8">
-            <v>-16.312000000000001</v>
+            <v>100.08500000000001</v>
           </cell>
         </row>
         <row r="9">
@@ -579,7 +579,7 @@
             <v>1.5029999999999999</v>
           </cell>
           <cell r="F9">
-            <v>-16.344999999999999</v>
+            <v>100.15</v>
           </cell>
         </row>
         <row r="10">
@@ -590,7 +590,7 @@
             <v>1.506</v>
           </cell>
           <cell r="F10">
-            <v>-16.298999999999999</v>
+            <v>100.15199999999999</v>
           </cell>
         </row>
         <row r="11">
@@ -601,7 +601,7 @@
             <v>1.504</v>
           </cell>
           <cell r="F11">
-            <v>-16.367999999999999</v>
+            <v>99.959000000000003</v>
           </cell>
         </row>
         <row r="12">
@@ -612,7 +612,7 @@
             <v>1.504</v>
           </cell>
           <cell r="F12">
-            <v>-16.343</v>
+            <v>100.181</v>
           </cell>
         </row>
         <row r="13">
@@ -623,7 +623,7 @@
             <v>1.5009999999999999</v>
           </cell>
           <cell r="F13">
-            <v>-16.355</v>
+            <v>100.145</v>
           </cell>
         </row>
         <row r="14">
@@ -634,7 +634,7 @@
             <v>1.508</v>
           </cell>
           <cell r="F14">
-            <v>-16.303999999999998</v>
+            <v>100.11199999999999</v>
           </cell>
         </row>
         <row r="15">
@@ -645,7 +645,7 @@
             <v>1.5049999999999999</v>
           </cell>
           <cell r="F15">
-            <v>-16.414999999999999</v>
+            <v>100.04400000000001</v>
           </cell>
         </row>
         <row r="16">
@@ -656,7 +656,7 @@
             <v>1.5029999999999999</v>
           </cell>
           <cell r="F16">
-            <v>-16.356999999999999</v>
+            <v>100.06700000000001</v>
           </cell>
         </row>
         <row r="17">
@@ -667,7 +667,7 @@
             <v>1.5089999999999999</v>
           </cell>
           <cell r="F17">
-            <v>-16.341999999999999</v>
+            <v>100.096</v>
           </cell>
         </row>
         <row r="18">
@@ -678,7 +678,7 @@
             <v>1.5069999999999999</v>
           </cell>
           <cell r="F18">
-            <v>-16.338000000000001</v>
+            <v>100.00200000000001</v>
           </cell>
         </row>
         <row r="19">
@@ -689,7 +689,7 @@
             <v>1.5069999999999999</v>
           </cell>
           <cell r="F19">
-            <v>-16.366</v>
+            <v>100.035</v>
           </cell>
         </row>
         <row r="20">
@@ -700,7 +700,7 @@
             <v>1.502</v>
           </cell>
           <cell r="F20">
-            <v>-16.391999999999999</v>
+            <v>100.01</v>
           </cell>
         </row>
         <row r="21">
@@ -711,7 +711,7 @@
             <v>1.508</v>
           </cell>
           <cell r="F21">
-            <v>-16.399999999999999</v>
+            <v>100.00900000000001</v>
           </cell>
         </row>
         <row r="22">
@@ -722,7 +722,7 @@
             <v>1.5069999999999999</v>
           </cell>
           <cell r="F22">
-            <v>-16.306999999999999</v>
+            <v>100.03999999999999</v>
           </cell>
         </row>
         <row r="23">
@@ -733,7 +733,7 @@
             <v>1.5069999999999999</v>
           </cell>
           <cell r="F23">
-            <v>-16.344999999999999</v>
+            <v>100.11799999999999</v>
           </cell>
         </row>
         <row r="24">
@@ -744,7 +744,7 @@
             <v>1.5029999999999999</v>
           </cell>
           <cell r="F24">
-            <v>-16.396999999999998</v>
+            <v>100.09899999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CB736-D95E-486B-9F97-98AD496A4D6D}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1096,19 +1096,19 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1182,12 +1182,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10">
         <f>[1]FormGerhadt!$F$8</f>
-        <v>-16.312000000000001</v>
+        <v>100.08500000000001</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10">
         <f>[1]FormGerhadt!$F$9</f>
-        <v>-16.344999999999999</v>
+        <v>100.15</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -1259,7 +1259,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10">
         <f>[1]FormGerhadt!$F$10</f>
-        <v>-16.298999999999999</v>
+        <v>100.15199999999999</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -1281,7 +1281,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10">
         <f>[1]FormGerhadt!$F$11</f>
-        <v>-16.367999999999999</v>
+        <v>99.959000000000003</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1303,7 +1303,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10">
         <f>[1]FormGerhadt!$F$12</f>
-        <v>-16.343</v>
+        <v>100.181</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10">
         <f>[1]FormGerhadt!$F$13</f>
-        <v>-16.355</v>
+        <v>100.145</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -1347,7 +1347,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10">
         <f>[1]FormGerhadt!$F$14</f>
-        <v>-16.303999999999998</v>
+        <v>100.11199999999999</v>
       </c>
       <c r="H24" s="10"/>
     </row>
@@ -1369,7 +1369,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10">
         <f>[1]FormGerhadt!$F$15</f>
-        <v>-16.414999999999999</v>
+        <v>100.04400000000001</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -1391,7 +1391,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10">
         <f>[1]FormGerhadt!$F$16</f>
-        <v>-16.356999999999999</v>
+        <v>100.06700000000001</v>
       </c>
       <c r="H26" s="10"/>
     </row>
@@ -1413,7 +1413,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10">
         <f>[1]FormGerhadt!$F$17</f>
-        <v>-16.341999999999999</v>
+        <v>100.096</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10">
         <f>[1]FormGerhadt!$F$18</f>
-        <v>-16.338000000000001</v>
+        <v>100.00200000000001</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10">
         <f>[1]FormGerhadt!$F$19</f>
-        <v>-16.366</v>
+        <v>100.035</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10">
         <f>[1]FormGerhadt!$F$20</f>
-        <v>-16.391999999999999</v>
+        <v>100.01</v>
       </c>
       <c r="H30" s="10"/>
     </row>
@@ -1501,7 +1501,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10">
         <f>[1]FormGerhadt!$F$21</f>
-        <v>-16.399999999999999</v>
+        <v>100.00900000000001</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -1523,7 +1523,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10">
         <f>[1]FormGerhadt!F22</f>
-        <v>-16.306999999999999</v>
+        <v>100.03999999999999</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -1545,7 +1545,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10">
         <f>[1]FormGerhadt!F23</f>
-        <v>-16.344999999999999</v>
+        <v>100.11799999999999</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -1567,18 +1567,46 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10">
         <f>[1]FormGerhadt!F24</f>
-        <v>-16.396999999999998</v>
+        <v>100.09899999999999</v>
       </c>
       <c r="H34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B29:D29"/>
@@ -1595,40 +1623,12 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:H34">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">

--- a/Desktop/JOE/Digestion/LIQ 201124/Muka Depan.xlsx
+++ b/Desktop/JOE/Digestion/LIQ 201124/Muka Depan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\LIQ 201124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A046F-7E28-45F2-8A87-835D79FAFDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E58240-DCFB-4F65-B266-66634751B545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -114,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -259,13 +262,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CB736-D95E-486B-9F97-98AD496A4D6D}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,19 +1102,19 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1182,12 +1188,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1208,16 +1214,16 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="E18" s="14">
         <f>[1]FormGerhadt!$C$8</f>
         <v>1.5029999999999999</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
         <f>[1]FormGerhadt!$F$8</f>
         <v>100.08500000000001</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
@@ -1230,16 +1236,16 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10">
+      <c r="E19" s="14">
         <f>[1]FormGerhadt!$C$9</f>
         <v>1.5029999999999999</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
         <f>[1]FormGerhadt!$F$9</f>
         <v>100.15</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
@@ -1252,16 +1258,16 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="E20" s="14">
         <f>[1]FormGerhadt!$C$10</f>
         <v>1.506</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
         <f>[1]FormGerhadt!$F$10</f>
         <v>100.15199999999999</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
@@ -1274,16 +1280,16 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="E21" s="14">
         <f>[1]FormGerhadt!$C$11</f>
         <v>1.504</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
         <f>[1]FormGerhadt!$F$11</f>
         <v>99.959000000000003</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
@@ -1296,16 +1302,16 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="10">
+      <c r="E22" s="14">
         <f>[1]FormGerhadt!$C$12</f>
         <v>1.504</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
         <f>[1]FormGerhadt!$F$12</f>
         <v>100.181</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
@@ -1318,16 +1324,16 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="10">
+      <c r="E23" s="14">
         <f>[1]FormGerhadt!$C$13</f>
         <v>1.5009999999999999</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <f>[1]FormGerhadt!$F$13</f>
         <v>100.145</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
@@ -1340,16 +1346,16 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="10">
+      <c r="E24" s="14">
         <f>[1]FormGerhadt!$C$14</f>
         <v>1.508</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <f>[1]FormGerhadt!$F$14</f>
         <v>100.11199999999999</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
@@ -1362,16 +1368,16 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="10">
+      <c r="E25" s="14">
         <f>[1]FormGerhadt!$C$15</f>
         <v>1.5049999999999999</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <f>[1]FormGerhadt!$F$15</f>
         <v>100.04400000000001</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
@@ -1384,16 +1390,16 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10">
+      <c r="E26" s="14">
         <f>[1]FormGerhadt!$C$16</f>
         <v>1.5029999999999999</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <f>[1]FormGerhadt!$F$16</f>
         <v>100.06700000000001</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
@@ -1406,16 +1412,16 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="10">
+      <c r="E27" s="14">
         <f>[1]FormGerhadt!$C$17</f>
         <v>1.5089999999999999</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <f>[1]FormGerhadt!$F$17</f>
         <v>100.096</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
@@ -1428,16 +1434,16 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10">
+      <c r="E28" s="14">
         <f>[1]FormGerhadt!$C$18</f>
         <v>1.5069999999999999</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
         <f>[1]FormGerhadt!$F$18</f>
         <v>100.00200000000001</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
@@ -1450,16 +1456,16 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10">
+      <c r="E29" s="14">
         <f>[1]FormGerhadt!$C$19</f>
         <v>1.5069999999999999</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <f>[1]FormGerhadt!$F$19</f>
         <v>100.035</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
@@ -1472,16 +1478,16 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="10">
+      <c r="E30" s="14">
         <f>[1]FormGerhadt!$C$20</f>
         <v>1.502</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <f>[1]FormGerhadt!$F$20</f>
         <v>100.01</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
@@ -1494,16 +1500,16 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="10">
+      <c r="E31" s="14">
         <f>[1]FormGerhadt!$C$21</f>
         <v>1.508</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
         <f>[1]FormGerhadt!$F$21</f>
         <v>100.00900000000001</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
@@ -1516,16 +1522,16 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="10">
+      <c r="E32" s="14">
         <f>[1]FormGerhadt!C22</f>
         <v>1.5069999999999999</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <f>[1]FormGerhadt!F22</f>
         <v>100.03999999999999</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
@@ -1538,16 +1544,16 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="10">
+      <c r="E33" s="14">
         <f>[1]FormGerhadt!C23</f>
         <v>1.5069999999999999</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
         <f>[1]FormGerhadt!F23</f>
         <v>100.11799999999999</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
@@ -1560,53 +1566,25 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="10">
+      <c r="E34" s="14">
         <f>[1]FormGerhadt!C24</f>
         <v>1.5029999999999999</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
         <f>[1]FormGerhadt!F24</f>
         <v>100.09899999999999</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B29:D29"/>
@@ -1623,12 +1601,40 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:H34">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
